--- a/Data/collapsed database manual cases/hidalgo_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/hidalgo_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/hidalgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3E2A7A3B-72A3-4E4F-9E27-0C4553F18C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73061814-D1F9-1043-8AF4-BB0479B22492}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5238AC-1EE5-984F-B5E0-75845DDBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="1380">
   <si>
     <t>uniqueid</t>
   </si>
@@ -4058,6 +4058,111 @@
   </si>
   <si>
     <t>http://201.161.66.31/index.php?option=com_content&amp;view=article&amp;id=178:resultados-diputados-2002&amp;catid=13:procesos&amp;Itemid=103</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>BENITO OLVERA MU√ëOZ</t>
+  </si>
+  <si>
+    <t>JOSE LUIS BA√ëOS CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE PENCA ZONGUA</t>
+  </si>
+  <si>
+    <t>MARTHA HERNANDEZ VELASCO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO AMADOR FRANCO</t>
+  </si>
+  <si>
+    <t>ALEIDA ORDAZ VARGAS</t>
+  </si>
+  <si>
+    <t>ALMA DALILA LOPEZ SANTIAGO</t>
+  </si>
+  <si>
+    <t>FRANCISCO URIEL ISLAS TREJO</t>
+  </si>
+  <si>
+    <t>AMERICA JUAREZ GARCIA</t>
+  </si>
+  <si>
+    <t>MARIO HUGO OLVERA MORALES</t>
+  </si>
+  <si>
+    <t>ALDO OCTAVIO MOLINA SANTOS</t>
+  </si>
+  <si>
+    <t>LUIS CASTA√ëEDA MU√ëOZ</t>
+  </si>
+  <si>
+    <t>ISMAEL GADOTH TAPIA BENITEZ</t>
+  </si>
+  <si>
+    <t>FERNANDO PEREZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ROCIO JAQUELINE SOSA JIMENEZ</t>
+  </si>
+  <si>
+    <t>PVEM_PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>TATIANA TONANTZIN PANGELES MORENO</t>
+  </si>
+  <si>
+    <t>JAIME RAMIREZ TOVAR</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE TAVERA GUERRERO</t>
+  </si>
+  <si>
+    <t>JOEL HUAZO CANALES</t>
+  </si>
+  <si>
+    <t>MARCELA ISIDRO GARCIA</t>
+  </si>
+  <si>
+    <t>ARMANDO MERA OLGUIN</t>
+  </si>
+  <si>
+    <t>MANUEL HERNANDEZ BADILLO</t>
+  </si>
+  <si>
+    <t>CI_1</t>
+  </si>
+  <si>
+    <t>JOEL ELIAS PASO</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>https://www.ieehidalgo.org.mx/images/sesiones/2016/Febrero/28022016/CG_22_2016_S280216.pdf</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9228609</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo.php?fbid=178308760495173&amp;set=pb.100063763682017.-2207520000&amp;type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MarcelaIsidroGarcia/</t>
+  </si>
+  <si>
+    <t>https://oem.com.mx/elsoldehidalgo/local/encabeza-francisco-casas-segunda-formula-de-candidatura-a-diputacion-local-por-el-pan-13563283</t>
+  </si>
+  <si>
+    <t>https://animalpolitico.com/estados/vinculan-proceso-candidato-pt-hidalgo-uso-ilicito-atribuciones?rtbref=rtb_no3s6alt5qszhlf3zp2l_1713927391153#google_vignette</t>
+  </si>
+  <si>
+    <t>CI</t>
   </si>
 </sst>
 </file>
@@ -4098,12 +4203,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4118,7 +4229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4128,6 +4239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4433,10 +4545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S499"/>
+  <dimension ref="A1:S526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H386" sqref="H386:I386"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H531" sqref="H531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4617,49 +4729,49 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>13001</v>
+        <v>13021</v>
       </c>
       <c r="B4">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="G4">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="O4">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="P4" t="s">
         <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -8524,31 +8636,31 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>13015</v>
+        <v>13022</v>
       </c>
       <c r="B87">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="G87">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
@@ -8557,7 +8669,7 @@
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="O87">
         <v>1999</v>
@@ -10119,7 +10231,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>13021</v>
+        <v>13028</v>
       </c>
       <c r="B121">
         <v>1999</v>
@@ -10128,22 +10240,22 @@
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="E121" t="s">
         <v>21</v>
       </c>
       <c r="F121" t="s">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="G121">
-        <v>336</v>
+        <v>407</v>
       </c>
       <c r="J121" t="s">
         <v>21</v>
       </c>
       <c r="K121" t="s">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="L121" t="s">
         <v>21</v>
@@ -10152,7 +10264,7 @@
         <v>21</v>
       </c>
       <c r="N121" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="O121">
         <v>1999</v>
@@ -10354,7 +10466,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>13022</v>
+        <v>13055</v>
       </c>
       <c r="B126">
         <v>1999</v>
@@ -10363,22 +10475,22 @@
         <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>876</v>
       </c>
       <c r="E126" t="s">
         <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>370</v>
+        <v>877</v>
       </c>
       <c r="G126">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="J126" t="s">
         <v>21</v>
       </c>
       <c r="K126" t="s">
-        <v>370</v>
+        <v>878</v>
       </c>
       <c r="L126" t="s">
         <v>21</v>
@@ -10387,7 +10499,7 @@
         <v>21</v>
       </c>
       <c r="N126" t="s">
-        <v>371</v>
+        <v>879</v>
       </c>
       <c r="O126">
         <v>1999</v>
@@ -11946,31 +12058,31 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>13028</v>
+        <v>13015</v>
       </c>
       <c r="B160">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C160" t="s">
         <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="E160" t="s">
         <v>21</v>
       </c>
       <c r="F160" t="s">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="G160">
-        <v>407</v>
+        <v>244</v>
       </c>
       <c r="J160" t="s">
         <v>21</v>
       </c>
       <c r="K160" t="s">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="L160" t="s">
         <v>21</v>
@@ -11979,7 +12091,7 @@
         <v>21</v>
       </c>
       <c r="N160" t="s">
-        <v>453</v>
+        <v>262</v>
       </c>
       <c r="O160">
         <v>1999</v>
@@ -14058,40 +14170,40 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>13035</v>
+        <v>13001</v>
       </c>
       <c r="B205">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C205" t="s">
         <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>560</v>
+        <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>568</v>
+        <v>31</v>
       </c>
       <c r="G205">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J205" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K205" t="s">
-        <v>568</v>
+        <v>31</v>
       </c>
       <c r="L205" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M205" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N205" t="s">
-        <v>569</v>
+        <v>32</v>
       </c>
       <c r="O205">
         <v>2005</v>
@@ -16088,52 +16200,49 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>13042</v>
+        <v>13035</v>
       </c>
       <c r="B248">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C248" t="s">
         <v>19</v>
       </c>
       <c r="D248" t="s">
-        <v>669</v>
+        <v>560</v>
       </c>
       <c r="E248" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F248" t="s">
-        <v>679</v>
-      </c>
-      <c r="H248" t="s">
-        <v>21</v>
-      </c>
-      <c r="I248" t="s">
-        <v>1331</v>
+        <v>568</v>
+      </c>
+      <c r="G248">
+        <v>380</v>
       </c>
       <c r="J248" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K248" t="s">
-        <v>679</v>
+        <v>568</v>
       </c>
       <c r="L248" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="M248" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N248" t="s">
-        <v>680</v>
+        <v>569</v>
       </c>
       <c r="O248">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="P248" t="s">
         <v>21</v>
       </c>
       <c r="Q248" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -18147,49 +18256,52 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>13049</v>
+        <v>13042</v>
       </c>
       <c r="B292">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C292" t="s">
         <v>19</v>
       </c>
       <c r="D292" t="s">
-        <v>794</v>
+        <v>669</v>
       </c>
       <c r="E292" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F292" t="s">
-        <v>795</v>
-      </c>
-      <c r="G292">
-        <v>125</v>
+        <v>679</v>
+      </c>
+      <c r="H292" t="s">
+        <v>21</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1331</v>
       </c>
       <c r="J292" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K292" t="s">
-        <v>795</v>
+        <v>679</v>
       </c>
       <c r="L292" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M292" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N292" t="s">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="O292">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="P292" t="s">
         <v>21</v>
       </c>
       <c r="Q292" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -19610,49 +19722,49 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>13055</v>
+        <v>13049</v>
       </c>
       <c r="B323">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="C323" t="s">
         <v>19</v>
       </c>
       <c r="D323" t="s">
-        <v>876</v>
+        <v>794</v>
       </c>
       <c r="E323" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F323" t="s">
-        <v>877</v>
+        <v>795</v>
       </c>
       <c r="G323">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J323" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K323" t="s">
-        <v>878</v>
+        <v>795</v>
       </c>
       <c r="L323" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M323" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N323" t="s">
-        <v>879</v>
+        <v>796</v>
       </c>
       <c r="O323">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="P323" t="s">
         <v>21</v>
       </c>
       <c r="Q323" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -27958,6 +28070,615 @@
       </c>
       <c r="Q499" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>13001</v>
+      </c>
+      <c r="B500">
+        <v>2020</v>
+      </c>
+      <c r="C500" t="s">
+        <v>19</v>
+      </c>
+      <c r="E500" t="s">
+        <v>188</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H500" t="s">
+        <v>21</v>
+      </c>
+      <c r="I500" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>13012</v>
+      </c>
+      <c r="B501">
+        <v>2020</v>
+      </c>
+      <c r="C501" t="s">
+        <v>19</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H501" t="s">
+        <v>21</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>13013</v>
+      </c>
+      <c r="B502">
+        <v>2020</v>
+      </c>
+      <c r="C502" t="s">
+        <v>19</v>
+      </c>
+      <c r="E502" t="s">
+        <v>188</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H502" t="s">
+        <v>127</v>
+      </c>
+      <c r="I502" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>13015</v>
+      </c>
+      <c r="B503">
+        <v>2020</v>
+      </c>
+      <c r="C503" t="s">
+        <v>19</v>
+      </c>
+      <c r="E503" t="s">
+        <v>188</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H503" t="s">
+        <v>220</v>
+      </c>
+      <c r="I503" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>13025</v>
+      </c>
+      <c r="B504">
+        <v>2020</v>
+      </c>
+      <c r="C504" t="s">
+        <v>19</v>
+      </c>
+      <c r="E504" t="s">
+        <v>188</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H504" t="s">
+        <v>68</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>13035</v>
+      </c>
+      <c r="B505">
+        <v>2020</v>
+      </c>
+      <c r="C505" t="s">
+        <v>19</v>
+      </c>
+      <c r="E505" t="s">
+        <v>188</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H505" t="s">
+        <v>220</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>13036</v>
+      </c>
+      <c r="B506">
+        <v>2020</v>
+      </c>
+      <c r="C506" t="s">
+        <v>19</v>
+      </c>
+      <c r="E506" t="s">
+        <v>188</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H506" t="s">
+        <v>21</v>
+      </c>
+      <c r="I506" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>13052</v>
+      </c>
+      <c r="B507">
+        <v>2020</v>
+      </c>
+      <c r="C507" t="s">
+        <v>19</v>
+      </c>
+      <c r="E507" t="s">
+        <v>188</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H507" t="s">
+        <v>21</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>13053</v>
+      </c>
+      <c r="B508">
+        <v>2020</v>
+      </c>
+      <c r="C508" t="s">
+        <v>19</v>
+      </c>
+      <c r="E508" t="s">
+        <v>188</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H508" t="s">
+        <v>21</v>
+      </c>
+      <c r="I508" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>13054</v>
+      </c>
+      <c r="B509">
+        <v>2020</v>
+      </c>
+      <c r="C509" t="s">
+        <v>19</v>
+      </c>
+      <c r="E509" t="s">
+        <v>188</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H509" t="s">
+        <v>220</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>13057</v>
+      </c>
+      <c r="B510">
+        <v>2020</v>
+      </c>
+      <c r="C510" t="s">
+        <v>19</v>
+      </c>
+      <c r="E510" t="s">
+        <v>188</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H510" t="s">
+        <v>220</v>
+      </c>
+      <c r="I510" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>13060</v>
+      </c>
+      <c r="B511">
+        <v>2020</v>
+      </c>
+      <c r="C511" t="s">
+        <v>19</v>
+      </c>
+      <c r="E511" t="s">
+        <v>188</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H511" t="s">
+        <v>220</v>
+      </c>
+      <c r="I511" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>13066</v>
+      </c>
+      <c r="B512">
+        <v>2020</v>
+      </c>
+      <c r="C512" t="s">
+        <v>19</v>
+      </c>
+      <c r="E512" t="s">
+        <v>188</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H512" t="s">
+        <v>220</v>
+      </c>
+      <c r="I512" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>13076</v>
+      </c>
+      <c r="B513">
+        <v>2020</v>
+      </c>
+      <c r="C513" t="s">
+        <v>19</v>
+      </c>
+      <c r="E513" t="s">
+        <v>188</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H513" t="s">
+        <v>21</v>
+      </c>
+      <c r="I513" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>13077</v>
+      </c>
+      <c r="B514">
+        <v>2020</v>
+      </c>
+      <c r="C514" t="s">
+        <v>19</v>
+      </c>
+      <c r="E514" t="s">
+        <v>188</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H514" t="s">
+        <v>21</v>
+      </c>
+      <c r="I514" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>13002</v>
+      </c>
+      <c r="B515">
+        <v>2021</v>
+      </c>
+      <c r="C515" t="s">
+        <v>19</v>
+      </c>
+      <c r="E515" t="s">
+        <v>188</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H515" t="s">
+        <v>21</v>
+      </c>
+      <c r="I515" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>13003</v>
+      </c>
+      <c r="B516">
+        <v>2024</v>
+      </c>
+      <c r="C516" t="s">
+        <v>19</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>13011</v>
+      </c>
+      <c r="B517">
+        <v>2024</v>
+      </c>
+      <c r="C517" t="s">
+        <v>19</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I517" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>13013</v>
+      </c>
+      <c r="B518">
+        <v>2024</v>
+      </c>
+      <c r="C518" t="s">
+        <v>19</v>
+      </c>
+      <c r="E518" t="s">
+        <v>58</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H518" t="s">
+        <v>68</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>13017</v>
+      </c>
+      <c r="B519">
+        <v>2024</v>
+      </c>
+      <c r="C519" t="s">
+        <v>19</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>13035</v>
+      </c>
+      <c r="B520">
+        <v>2024</v>
+      </c>
+      <c r="C520" t="s">
+        <v>19</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I520" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>13040</v>
+      </c>
+      <c r="B521">
+        <v>2024</v>
+      </c>
+      <c r="C521" t="s">
+        <v>19</v>
+      </c>
+      <c r="E521" t="s">
+        <v>58</v>
+      </c>
+      <c r="F521" t="s">
+        <v>649</v>
+      </c>
+      <c r="H521" t="s">
+        <v>68</v>
+      </c>
+      <c r="I521" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>13043</v>
+      </c>
+      <c r="B522">
+        <v>2024</v>
+      </c>
+      <c r="C522" t="s">
+        <v>19</v>
+      </c>
+      <c r="E522" t="s">
+        <v>58</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H522" t="s">
+        <v>30</v>
+      </c>
+      <c r="I522" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>13047</v>
+      </c>
+      <c r="B523">
+        <v>2024</v>
+      </c>
+      <c r="C523" t="s">
+        <v>19</v>
+      </c>
+      <c r="E523" t="s">
+        <v>58</v>
+      </c>
+      <c r="F523" t="s">
+        <v>764</v>
+      </c>
+      <c r="H523" t="s">
+        <v>30</v>
+      </c>
+      <c r="I523" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>13050</v>
+      </c>
+      <c r="B524">
+        <v>2024</v>
+      </c>
+      <c r="C524" t="s">
+        <v>19</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H524" t="s">
+        <v>110</v>
+      </c>
+      <c r="I524" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>13059</v>
+      </c>
+      <c r="B525">
+        <v>2024</v>
+      </c>
+      <c r="C525" t="s">
+        <v>19</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>13076</v>
+      </c>
+      <c r="B526">
+        <v>2024</v>
+      </c>
+      <c r="C526" t="s">
+        <v>19</v>
+      </c>
+      <c r="E526" t="s">
+        <v>58</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H526" t="s">
+        <v>68</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -27977,6 +28698,9 @@
         <filter val="LUIS VEGA CARDON"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S526">
+      <sortCondition ref="B1:B526"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
